--- a/docs/source/content/example_notebooks/source/type02_db_NREL5MW_v02.xlsx
+++ b/docs/source/content/example_notebooks/source/type02_db_NREL5MW_v02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -405,15 +405,15 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,14 +538,14 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H38" activeCellId="0" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.05"/>
@@ -557,14 +557,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="17" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="28" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,19 +1141,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1007" min="2" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1008" min="1008" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1008" min="1008" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1009" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="7.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,298 +1189,198 @@
       <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0.0269821428571429</v>
+      <c r="A5" s="0" t="n">
+        <v>0.056070447237192</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="0"/>
       <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>0.042855</v>
+      <c r="A6" s="0" t="n">
+        <v>0.111964476103308</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="0"/>
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>0.0587278571428572</v>
+      <c r="A7" s="0" t="n">
+        <v>0.167506223304736</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="0"/>
       <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>0.0746007142857143</v>
+      <c r="A8" s="0" t="n">
+        <v>0.222520933956314</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="0"/>
       <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0.0904735714285714</v>
+      <c r="A9" s="0" t="n">
+        <v>0.25</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="0"/>
       <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>0.106346428571429</v>
+      <c r="A10" s="0" t="n">
+        <v>0.330279061955167</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>0.122219285714286</v>
+      <c r="A11" s="0" t="n">
+        <v>0.38268343236509</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="0"/>
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>0.138092142857143</v>
+      <c r="A12" s="0" t="n">
+        <v>0.45</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="0"/>
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>0.153984523809524</v>
+      <c r="A13" s="0" t="n">
+        <v>0.48371888710524</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>0.169837857142857</v>
+      <c r="A14" s="0" t="n">
+        <v>0.532032076515337</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>0.185710714285714</v>
+      <c r="A15" s="0" t="n">
+        <v>0.578671296179806</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>0.201583571428571</v>
+      <c r="A16" s="0" t="n">
+        <v>0.623489801858733</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>0.217456428571429</v>
+      <c r="A17" s="0" t="n">
+        <v>0.666346577952004</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>0.23334880952381</v>
+      <c r="A18" s="0" t="n">
+        <v>0.707106781186547</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>0.249202142857143</v>
+      <c r="A19" s="0" t="n">
+        <v>0.75</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>0.265075</v>
+      <c r="A20" s="0" t="n">
+        <v>0.78183148246803</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0.280947857142857</v>
+      <c r="A21" s="0" t="n">
+        <v>0.81556086895926</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>0.312713095238095</v>
+      <c r="A22" s="0" t="n">
+        <v>0.846724199228284</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>0.344449047619048</v>
+      <c r="A23" s="0" t="n">
+        <v>0.875223421908754</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>0.376194761904762</v>
+      <c r="A24" s="0" t="n">
+        <v>0.900968867902419</v>
       </c>
       <c r="C24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>0.407940476190476</v>
+      <c r="A25" s="0" t="n">
+        <v>0.923879532511287</v>
       </c>
       <c r="C25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>0.439686190476191</v>
+      <c r="A26" s="0" t="n">
+        <v>0.94</v>
       </c>
       <c r="C26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>0.471441666666667</v>
+      <c r="A27" s="0" t="n">
+        <v>0.9609173219451</v>
       </c>
       <c r="C27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>0.503177619047619</v>
+      <c r="A28" s="0" t="n">
+        <v>0.974927912181824</v>
       </c>
       <c r="C28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>0.534923333333333</v>
+      <c r="A29" s="0" t="n">
+        <v>0.985871018518236</v>
       </c>
       <c r="C29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>0.566669047619048</v>
+      <c r="A30" s="0" t="n">
+        <v>0.993712209893243</v>
       </c>
       <c r="C30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>0.598414761904762</v>
+      <c r="A31" s="0" t="n">
+        <v>0.998426815017817</v>
       </c>
       <c r="C31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>0.630170238095238</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>0.661906190476191</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>0.693651904761905</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>0.725397619047619</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>0.757143333333333</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>0.788908571428571</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>0.820634761904762</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>0.852380476190476</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>0.884126190476191</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>0.899999047619048</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>0.915871904761905</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>0.931744761904762</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>0.93968119047619</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>0.947637142857143</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>0.955554047619048</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>0.963490476190476</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>0.971426904761905</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>0.979363333333333</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>0.987299761904762</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>0.99523619047619</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1406,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="10.39"/>
@@ -1514,18 +1414,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="18" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="27" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="7.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,16 +4875,16 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="7" style="1" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="7.29"/>
@@ -5046,10 +4946,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.0888888888888889</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>3.542</v>
+        <v>3.854</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>100</v>
@@ -5067,10 +4967,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.0455031746031746</v>
+        <v>0.132274603174603</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.542</v>
+        <v>4.167</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>100</v>
@@ -5083,13 +4983,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.186507936507937</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3.854</v>
+        <v>4.557</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -5099,109 +4999,109 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>0.132274603174603</v>
+        <v>0.251587301587302</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>4.167</v>
+        <v>4.652</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>0.186507936507937</v>
+        <v>0.316666666666667</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>4.557</v>
+        <v>4.458</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0.251587301587302</v>
+        <v>0.381746031746032</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>4.652</v>
+        <v>4.249</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0.316666666666667</v>
+        <v>0.446825396825397</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>4.458</v>
+        <v>4.007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0.381746031746032</v>
+        <v>0.511904761904762</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>4.249</v>
+        <v>3.748</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0.446825396825397</v>
+        <v>0.576984126984127</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>4.007</v>
+        <v>3.502</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>0.511904761904762</v>
+        <v>0.642063492063492</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>3.748</v>
+        <v>3.256</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>0.576984126984127</v>
+        <v>0.707142857142857</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>3.502</v>
+        <v>3.01</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>0.642063492063492</v>
+        <v>0.772222222222222</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>3.256</v>
+        <v>2.764</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>0.707142857142857</v>
+        <v>0.837301587301587</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3.01</v>
+        <v>2.518</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>18</v>
@@ -5209,10 +5109,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>0.772222222222222</v>
+        <v>0.891534920634921</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2.764</v>
+        <v>2.313</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>18</v>
@@ -5220,10 +5120,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>0.837301587301587</v>
+        <v>0.934920634920635</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>2.518</v>
+        <v>2.086</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>18</v>
@@ -5231,10 +5131,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>0.891534920634921</v>
+        <v>0.978306349206349</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>2.313</v>
+        <v>1.419</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>18</v>
@@ -5242,36 +5142,24 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>0.934920634920635</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>2.086</v>
+        <v>1.419</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>0.978306349206349</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1.419</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>18</v>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>1.419</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>18</v>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5295,7 +5183,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5409,11 +5297,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ402"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.12"/>
